--- a/devices/AndroidDevices.xlsx
+++ b/devices/AndroidDevices.xlsx
@@ -5,11 +5,11 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaom/Desktop/OSX/xiaoMWork/workspace/AppUiXM/devices/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaom/Desktop/OSX/xiaoMWork/workspace/AppiumUiXM/devices/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="2100" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="3360" yWindow="2100" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="三星 i9192" sheetId="1" r:id="rId1"/>
@@ -113,11 +113,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.1.103:5555</t>
+    <t>BX903GAXNL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BX903GAXNL</t>
+    <t>209e61b5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1073,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1120,7 +1120,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>14</v>
@@ -1168,7 +1168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1309,7 +1309,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>14</v>

--- a/devices/AndroidDevices.xlsx
+++ b/devices/AndroidDevices.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaom/Desktop/OSX/xiaoMWork/workspace/AppiumUiXM/devices/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="2100" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="3360" yWindow="2100" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="三星 i9192" sheetId="1" r:id="rId1"/>
-    <sheet name="夜神模拟器" sheetId="2" r:id="rId2"/>
-    <sheet name="Sony L36h" sheetId="4" r:id="rId3"/>
+    <sheet name="三星i9192" sheetId="1" r:id="rId1"/>
+    <sheet name="夜神" sheetId="2" r:id="rId2"/>
+    <sheet name="SonyL36h" sheetId="4" r:id="rId3"/>
+    <sheet name="模拟器2" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -81,18 +77,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>127.0.0.1:62001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>手机设备ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4.4.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ipAddress</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,14 +106,26 @@
   </si>
   <si>
     <t>209e61b5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1:52001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1:52025</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,7 +336,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="30">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -344,7 +344,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -403,7 +403,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -422,23 +422,23 @@
     <dxf>
       <border outline="0">
         <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -449,7 +449,7 @@
           <bgColor theme="3" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -468,7 +468,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -527,7 +527,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -573,7 +573,7 @@
           <bgColor theme="3" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -592,7 +592,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -651,7 +651,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -697,7 +697,131 @@
           <bgColor theme="3" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -734,8 +858,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="22"/>
-      <tableStyleElement type="headerRow" dxfId="21"/>
+      <tableStyleElement type="wholeTable" dxfId="29"/>
+      <tableStyleElement type="headerRow" dxfId="28"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -747,7 +871,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D5" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D5" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25">
+  <tableColumns count="4">
+    <tableColumn id="1" name="序号" dataDxfId="24"/>
+    <tableColumn id="2" name="name" dataDxfId="23"/>
+    <tableColumn id="3" name="value" dataDxfId="22"/>
+    <tableColumn id="4" name="备注" dataDxfId="21"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:D5" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
+  <autoFilter ref="A1:D5"/>
   <tableColumns count="4">
     <tableColumn id="1" name="序号" dataDxfId="17"/>
     <tableColumn id="2" name="name" dataDxfId="16"/>
@@ -758,8 +895,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:D5" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_5" displayName="表1_5" ref="A1:D5" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="A1:D5"/>
   <tableColumns count="4">
     <tableColumn id="1" name="序号" dataDxfId="10"/>
@@ -771,8 +908,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_5" displayName="表1_5" ref="A1:D5" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="A1:D5" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A1:D5"/>
   <tableColumns count="4">
     <tableColumn id="1" name="序号" dataDxfId="3"/>
@@ -1070,21 +1207,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1098,21 +1235,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1120,13 +1257,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1140,7 +1277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1165,21 +1302,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1193,21 +1330,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1215,13 +1352,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1229,13 +1366,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1259,21 +1396,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D5"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1287,21 +1424,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1309,13 +1446,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1323,13 +1460,107 @@
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="4">
         <v>4</v>
       </c>

--- a/devices/AndroidDevices.xlsx
+++ b/devices/AndroidDevices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="2100" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="3360" yWindow="2100" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="三星i9192" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="25">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -118,6 +118,10 @@
   </si>
   <si>
     <t>127.0.0.1:52025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP地址（默认不修改）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1210,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -1246,7 +1250,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1305,7 +1309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/devices/AndroidDevices.xlsx
+++ b/devices/AndroidDevices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="2100" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="3360" yWindow="2100" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="三星i9192" sheetId="1" r:id="rId1"/>
@@ -1214,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -1309,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>

--- a/devices/AndroidDevices.xlsx
+++ b/devices/AndroidDevices.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="3360" yWindow="2100" windowWidth="19200" windowHeight="11640" activeTab="1"/>
@@ -14,9 +14,6 @@
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -109,10 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>127.0.0.1:52001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4.4.2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -122,14 +115,18 @@
   </si>
   <si>
     <t>IP地址（默认不修改）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1:62001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +145,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -161,6 +159,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -348,7 +347,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -407,7 +406,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -453,7 +452,7 @@
           <bgColor theme="3" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -472,7 +471,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -531,7 +530,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -577,7 +576,7 @@
           <bgColor theme="3" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -596,7 +595,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -655,7 +654,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -701,7 +700,7 @@
           <bgColor theme="3" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -720,7 +719,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -779,7 +778,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -825,7 +824,7 @@
           <bgColor theme="3" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1211,21 +1210,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="18.125" customWidth="1"/>
     <col min="3" max="3" width="17.875" customWidth="1"/>
     <col min="4" max="4" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1239,7 +1238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1250,10 +1249,10 @@
         <v>17</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1267,7 +1266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1281,7 +1280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1306,21 +1305,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="15.625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1334,7 +1333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1348,7 +1347,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1356,13 +1355,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1370,13 +1369,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1400,21 +1399,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="14.625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1428,7 +1427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1442,7 +1441,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1456,7 +1455,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1470,7 +1469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1494,21 +1493,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="15.625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1522,7 +1521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1536,7 +1535,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1544,13 +1543,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1558,13 +1557,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>4</v>
       </c>

--- a/devices/AndroidDevices.xlsx
+++ b/devices/AndroidDevices.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28209"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Daily/OSX/xiaoMWork/IDEA-Work/AppiumUiXM/devices/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="2100" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="20000"/>
   </bookViews>
   <sheets>
     <sheet name="三星i9192" sheetId="1" r:id="rId1"/>
     <sheet name="夜神" sheetId="2" r:id="rId2"/>
-    <sheet name="SonyL36h" sheetId="4" r:id="rId3"/>
-    <sheet name="模拟器2" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -94,24 +100,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5.1.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BX903GAXNL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>209e61b5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4.4.2</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>127.0.0.1:52025</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>IP地址（默认不修改）</t>
@@ -339,7 +333,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -425,23 +419,23 @@
     <dxf>
       <border outline="0">
         <left style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </left>
         <right style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </right>
         <top style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </top>
         <bottom style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
@@ -589,254 +583,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -861,8 +607,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="29"/>
-      <tableStyleElement type="headerRow" dxfId="28"/>
+      <tableStyleElement type="wholeTable" dxfId="15"/>
+      <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -874,33 +620,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D5" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25">
-  <tableColumns count="4">
-    <tableColumn id="1" name="序号" dataDxfId="24"/>
-    <tableColumn id="2" name="name" dataDxfId="23"/>
-    <tableColumn id="3" name="value" dataDxfId="22"/>
-    <tableColumn id="4" name="备注" dataDxfId="21"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:D5" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
-  <autoFilter ref="A1:D5"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="序号" dataDxfId="17"/>
-    <tableColumn id="2" name="name" dataDxfId="16"/>
-    <tableColumn id="3" name="value" dataDxfId="15"/>
-    <tableColumn id="4" name="备注" dataDxfId="14"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_5" displayName="表1_5" ref="A1:D5" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="A1:D5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D5" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
   <tableColumns count="4">
     <tableColumn id="1" name="序号" dataDxfId="10"/>
     <tableColumn id="2" name="name" dataDxfId="9"/>
@@ -911,8 +631,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="A1:D5" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:D5" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A1:D5"/>
   <tableColumns count="4">
     <tableColumn id="1" name="序号" dataDxfId="3"/>
@@ -1213,15 +933,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="18.125" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
-    <col min="4" max="4" width="24.625" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -1249,7 +969,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1260,7 +980,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>13</v>
@@ -1308,14 +1028,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1355,7 +1075,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>13</v>
@@ -1369,195 +1089,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>7</v>

--- a/devices/AndroidDevices.xlsx
+++ b/devices/AndroidDevices.xlsx
@@ -1,25 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Daily/OSX/xiaoMWork/IDEA-Work/AppiumUiXM/devices/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="20000"/>
+    <workbookView xWindow="3360" yWindow="2100" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="三星i9192" sheetId="1" r:id="rId1"/>
     <sheet name="夜神" sheetId="2" r:id="rId2"/>
+    <sheet name="华为M8" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -28,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -113,6 +106,14 @@
   </si>
   <si>
     <t>127.0.0.1:62001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJL5T16708001191</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -294,7 +295,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -329,11 +330,14 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -583,6 +587,130 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -607,8 +735,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="15"/>
-      <tableStyleElement type="headerRow" dxfId="14"/>
+      <tableStyleElement type="wholeTable" dxfId="22"/>
+      <tableStyleElement type="headerRow" dxfId="21"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -620,7 +748,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D5" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D5" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
+  <tableColumns count="4">
+    <tableColumn id="1" name="序号" dataDxfId="17"/>
+    <tableColumn id="2" name="name" dataDxfId="16"/>
+    <tableColumn id="3" name="value" dataDxfId="15"/>
+    <tableColumn id="4" name="备注" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:D5" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="A1:D5"/>
   <tableColumns count="4">
     <tableColumn id="1" name="序号" dataDxfId="10"/>
     <tableColumn id="2" name="name" dataDxfId="9"/>
@@ -631,9 +772,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:D5" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A1:D5"/>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_5" displayName="表1_5" ref="A1:D5" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
   <tableColumns count="4">
     <tableColumn id="1" name="序号" dataDxfId="3"/>
     <tableColumn id="2" name="name" dataDxfId="2"/>
@@ -933,15 +1073,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -1028,14 +1166,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1116,4 +1252,99 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="24.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/devices/AndroidDevices.xlsx
+++ b/devices/AndroidDevices.xlsx
@@ -1073,7 +1073,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>

--- a/devices/AndroidDevices.xlsx
+++ b/devices/AndroidDevices.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="2100" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="3360" yWindow="2100" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="三星i9192" sheetId="1" r:id="rId1"/>
     <sheet name="夜神" sheetId="2" r:id="rId2"/>
     <sheet name="华为M8" sheetId="3" r:id="rId3"/>
+    <sheet name="红米4A" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="26">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -114,6 +115,14 @@
   </si>
   <si>
     <t>7.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46c64ae67d14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -121,7 +130,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +175,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -295,7 +318,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -333,11 +356,220 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -735,8 +967,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="22"/>
-      <tableStyleElement type="headerRow" dxfId="21"/>
+      <tableStyleElement type="wholeTable" dxfId="30"/>
+      <tableStyleElement type="headerRow" dxfId="29"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -748,37 +980,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D5" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D5" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26">
   <tableColumns count="4">
-    <tableColumn id="1" name="序号" dataDxfId="17"/>
-    <tableColumn id="2" name="name" dataDxfId="16"/>
-    <tableColumn id="3" name="value" dataDxfId="15"/>
-    <tableColumn id="4" name="备注" dataDxfId="14"/>
+    <tableColumn id="1" name="序号" dataDxfId="25"/>
+    <tableColumn id="2" name="name" dataDxfId="24"/>
+    <tableColumn id="3" name="value" dataDxfId="23"/>
+    <tableColumn id="4" name="备注" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:D5" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:D5" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19">
   <autoFilter ref="A1:D5"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="序号" dataDxfId="10"/>
-    <tableColumn id="2" name="name" dataDxfId="9"/>
-    <tableColumn id="3" name="value" dataDxfId="8"/>
-    <tableColumn id="4" name="备注" dataDxfId="7"/>
+    <tableColumn id="1" name="序号" dataDxfId="18"/>
+    <tableColumn id="2" name="name" dataDxfId="17"/>
+    <tableColumn id="3" name="value" dataDxfId="16"/>
+    <tableColumn id="4" name="备注" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_5" displayName="表1_5" ref="A1:D5" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表1_5" displayName="表1_5" ref="A1:D5" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
   <tableColumns count="4">
-    <tableColumn id="1" name="序号" dataDxfId="3"/>
-    <tableColumn id="2" name="name" dataDxfId="2"/>
-    <tableColumn id="3" name="value" dataDxfId="1"/>
-    <tableColumn id="4" name="备注" dataDxfId="0"/>
+    <tableColumn id="1" name="序号" dataDxfId="11"/>
+    <tableColumn id="2" name="name" dataDxfId="10"/>
+    <tableColumn id="3" name="value" dataDxfId="9"/>
+    <tableColumn id="4" name="备注" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表1_56" displayName="表1_56" ref="A1:D5" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <tableColumns count="4">
+    <tableColumn id="1" name="序号" dataDxfId="5"/>
+    <tableColumn id="2" name="name" dataDxfId="4"/>
+    <tableColumn id="3" name="value" dataDxfId="3"/>
+    <tableColumn id="4" name="备注" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1073,7 +1317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -1261,7 +1505,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1349,4 +1593,99 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="24.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>